--- a/The Most Important File Ever.xlsx
+++ b/The Most Important File Ever.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabrizi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabrizi\Desktop\Docks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9292FCC-688F-4CFC-9A7A-E6AD82476D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0932D4-7A12-4A18-9298-1E3F144C1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="1170" windowWidth="17430" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
   <si>
     <t>name</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>C@t9229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat 170 </t>
+  </si>
+  <si>
+    <t>172.16.43.143</t>
   </si>
 </sst>
 </file>
@@ -749,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G58"/>
+  <dimension ref="B1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,6 +1296,20 @@
         <v>114</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1323,8 +1343,9 @@
     <hyperlink ref="D44" r:id="rId26" xr:uid="{065822D3-5D8F-44E8-8839-F977CA9EA711}"/>
     <hyperlink ref="E56" r:id="rId27" xr:uid="{446A55F9-2480-4A18-A82E-4349FBF59E68}"/>
     <hyperlink ref="E58" r:id="rId28" xr:uid="{2960A948-09D8-406C-A5AA-D0A033F07BDB}"/>
+    <hyperlink ref="E59" r:id="rId29" xr:uid="{C91D519B-2ACF-4532-BE28-EADBCB840998}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId29"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId30"/>
 </worksheet>
 </file>
--- a/The Most Important File Ever.xlsx
+++ b/The Most Important File Ever.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabrizi\Desktop\Docks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0932D4-7A12-4A18-9298-1E3F144C1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5560B067-44CB-4C58-A0A0-1A6262CF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -253,9 +253,6 @@
     <t>kahkeshankah@123456</t>
   </si>
   <si>
-    <t>172.16.40.111:8080</t>
-  </si>
-  <si>
     <t>172.16.40.111:8090</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>172.16.40.180</t>
   </si>
   <si>
-    <t>172.16.40.179:1433</t>
-  </si>
-  <si>
     <t>172.16.40.178:8080</t>
   </si>
   <si>
@@ -389,6 +383,27 @@
   </si>
   <si>
     <t>172.16.43.143</t>
+  </si>
+  <si>
+    <t>https://172.16.22.14/ui/#/host/vms</t>
+  </si>
+  <si>
+    <t>vm github</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>openconnect https://flytoday.xyz:3443</t>
+  </si>
+  <si>
+    <t>172.16.40.233:8080</t>
+  </si>
+  <si>
+    <t>172.16.40.233:1433</t>
   </si>
 </sst>
 </file>
@@ -755,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G59"/>
+  <dimension ref="B1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +782,7 @@
     <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" customWidth="1"/>
     <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -869,7 +884,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
@@ -1040,10 +1055,10 @@
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>18</v>
@@ -1054,10 +1069,10 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>18</v>
@@ -1065,10 +1080,10 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
         <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -1114,7 +1129,7 @@
       <c r="C40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E40" t="s">
@@ -1126,7 +1141,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2">
         <v>323</v>
@@ -1136,7 +1151,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>314</v>
@@ -1144,39 +1159,39 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>18</v>
@@ -1184,133 +1199,156 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" t="s">
         <v>85</v>
-      </c>
-      <c r="E46" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
         <v>97</v>
       </c>
-      <c r="C50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>99</v>
       </c>
-      <c r="C51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>103</v>
       </c>
-      <c r="C53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>112</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="C59" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
         <v>116</v>
       </c>
-      <c r="C59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>115</v>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1344,8 +1382,9 @@
     <hyperlink ref="E56" r:id="rId27" xr:uid="{446A55F9-2480-4A18-A82E-4349FBF59E68}"/>
     <hyperlink ref="E58" r:id="rId28" xr:uid="{2960A948-09D8-406C-A5AA-D0A033F07BDB}"/>
     <hyperlink ref="E59" r:id="rId29" xr:uid="{C91D519B-2ACF-4532-BE28-EADBCB840998}"/>
+    <hyperlink ref="D40" r:id="rId30" xr:uid="{6D66BF3B-6935-45D5-A532-5C97721EDC58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId30"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
 </worksheet>
 </file>
--- a/The Most Important File Ever.xlsx
+++ b/The Most Important File Ever.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabrizi\Desktop\Docks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5560B067-44CB-4C58-A0A0-1A6262CF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD1A49F-AB8F-4074-8637-478CE4BED033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="525" windowWidth="21600" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -404,6 +404,12 @@
   </si>
   <si>
     <t>172.16.40.233:1433</t>
+  </si>
+  <si>
+    <t>pam manage engine</t>
+  </si>
+  <si>
+    <t>https://192.168.1.162:8282/</t>
   </si>
 </sst>
 </file>
@@ -770,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H60"/>
+  <dimension ref="B1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,6 +1355,20 @@
       </c>
       <c r="H60" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
